--- a/va_facility_data_2025-02-20/John J. McGuirk Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''John%20J.%20McGuirk%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/John J. McGuirk Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''John%20J.%20McGuirk%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R558ea81c79e849b29a404c4dd959a308"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc94a5283bb674112a60d0e92c8ecb767"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4a7b243ff82d45f3890b6f0cccf6401c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re144b21994304a0c80058b515ad83af0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R99daee9c4ce349a69e3cca7a60d8abbb"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd2b6f61a938e4201930ddfd8786bc1f4"/>
   </x:sheets>
 </x:workbook>
 </file>
